--- a/data/trans_orig/P43A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Habitat-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>49724</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38159</v>
+        <v>37861</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61481</v>
+        <v>62670</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2048135480058542</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1571776158515393</v>
+        <v>0.1559469766832612</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2532399733825047</v>
+        <v>0.2581367350562462</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>84755</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71116</v>
+        <v>70275</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>99555</v>
+        <v>98796</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3491016119814628</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2929239903176036</v>
+        <v>0.2894615830699037</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4100643635057306</v>
+        <v>0.4069395625618798</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>53974</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>42843</v>
+        <v>42037</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67528</v>
+        <v>67942</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2223181143309898</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.176470650331688</v>
+        <v>0.1731506113573407</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2781452427564414</v>
+        <v>0.2798508255517966</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>54326</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43119</v>
+        <v>41374</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66453</v>
+        <v>67226</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2237667256816931</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1776053896392172</v>
+        <v>0.1704189514370336</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2737186579838268</v>
+        <v>0.2769029360202107</v>
       </c>
     </row>
     <row r="8">
@@ -773,19 +773,19 @@
         <v>81941</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>67077</v>
+        <v>67325</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>98141</v>
+        <v>98748</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.240670455876031</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1970116781885208</v>
+        <v>0.1977401187474614</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2882515291005815</v>
+        <v>0.2900353327916165</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         <v>118490</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>102527</v>
+        <v>101113</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>137289</v>
+        <v>136366</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3480177372719895</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3011336749818767</v>
+        <v>0.2969804705622415</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4032336003570629</v>
+        <v>0.4005226552365253</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>79840</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>65527</v>
+        <v>64548</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>96454</v>
+        <v>97799</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2345007242967109</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.192461221806196</v>
+        <v>0.1895852448408089</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2832951558534248</v>
+        <v>0.2872464568499878</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>60199</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46976</v>
+        <v>46454</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>74132</v>
+        <v>74611</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1768110825552687</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.137973182926327</v>
+        <v>0.1364411267339742</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2177355646692683</v>
+        <v>0.2191402894770428</v>
       </c>
     </row>
     <row r="13">
@@ -922,19 +922,19 @@
         <v>73742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60660</v>
+        <v>59939</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>88778</v>
+        <v>88285</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2813932088859479</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2314704136106237</v>
+        <v>0.228721313363058</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3387684792030347</v>
+        <v>0.3368868377864728</v>
       </c>
     </row>
     <row r="15">
@@ -951,19 +951,19 @@
         <v>89624</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>74425</v>
+        <v>75236</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>105595</v>
+        <v>106177</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3419962471407081</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2839982390879509</v>
+        <v>0.287092558882894</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4029371202670455</v>
+        <v>0.405159985588963</v>
       </c>
     </row>
     <row r="16">
@@ -980,19 +980,19 @@
         <v>67888</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53527</v>
+        <v>55825</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83187</v>
+        <v>81751</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2590541685074208</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2042544452448055</v>
+        <v>0.2130218640101352</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3174343391481487</v>
+        <v>0.3119511603825502</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>30807</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21764</v>
+        <v>21918</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43792</v>
+        <v>42171</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1175563754659232</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08304848341935961</v>
+        <v>0.08363634928907651</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1671038404726386</v>
+        <v>0.160918906525648</v>
       </c>
     </row>
     <row r="18">
@@ -1071,19 +1071,19 @@
         <v>98740</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>82177</v>
+        <v>82747</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>117351</v>
+        <v>117525</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2338802917278079</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1946475737423791</v>
+        <v>0.1959986374493283</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2779621856348129</v>
+        <v>0.2783755306990577</v>
       </c>
     </row>
     <row r="20">
@@ -1100,19 +1100,19 @@
         <v>155453</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>135247</v>
+        <v>136474</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>176056</v>
+        <v>175227</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3682126554236785</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3203515543018357</v>
+        <v>0.3232582154101528</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4170150244702625</v>
+        <v>0.4150513344297945</v>
       </c>
     </row>
     <row r="21">
@@ -1129,19 +1129,19 @@
         <v>93585</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>77663</v>
+        <v>77524</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>112593</v>
+        <v>111657</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2216709629356444</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1839573057003445</v>
+        <v>0.1836262328494116</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2666924865831596</v>
+        <v>0.2644748267061068</v>
       </c>
     </row>
     <row r="22">
@@ -1158,19 +1158,19 @@
         <v>74404</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60296</v>
+        <v>59336</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>92674</v>
+        <v>91056</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1762360899128691</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1428200113094524</v>
+        <v>0.140546955644186</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2195130584944004</v>
+        <v>0.2156796137291968</v>
       </c>
     </row>
     <row r="23">
@@ -1220,19 +1220,19 @@
         <v>304148</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>277767</v>
+        <v>275458</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>337615</v>
+        <v>332467</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2399603057706953</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2191468051465074</v>
+        <v>0.2173252149045765</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2663642881641601</v>
+        <v>0.2623026761578416</v>
       </c>
     </row>
     <row r="25">
@@ -1249,19 +1249,19 @@
         <v>448321</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>410377</v>
+        <v>413092</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>480226</v>
+        <v>481067</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3537069799524601</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3237706923746241</v>
+        <v>0.3259122615970425</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3788783258186811</v>
+        <v>0.3795416746159089</v>
       </c>
     </row>
     <row r="26">
@@ -1278,19 +1278,19 @@
         <v>295289</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>265226</v>
+        <v>265097</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>323560</v>
+        <v>323981</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2329704129201242</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2092519939268311</v>
+        <v>0.2091503677878019</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2552754907137014</v>
+        <v>0.2556078925520705</v>
       </c>
     </row>
     <row r="27">
@@ -1307,19 +1307,19 @@
         <v>219736</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>192850</v>
+        <v>195772</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>247941</v>
+        <v>247311</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1733623013567203</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1521502973554974</v>
+        <v>0.1544559626673838</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1956148378890754</v>
+        <v>0.1951181775500997</v>
       </c>
     </row>
     <row r="28">
@@ -1487,19 +1487,19 @@
         <v>71720</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55698</v>
+        <v>57833</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89116</v>
+        <v>90225</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2184978951947857</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1696886964575577</v>
+        <v>0.1761929326513238</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2714973930374362</v>
+        <v>0.2748765548276937</v>
       </c>
     </row>
     <row r="5">
@@ -1516,19 +1516,19 @@
         <v>110476</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>92297</v>
+        <v>93266</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>128637</v>
+        <v>129021</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3365703762094642</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.28118759591194</v>
+        <v>0.2841405603229277</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3918989248417173</v>
+        <v>0.3930713170110442</v>
       </c>
     </row>
     <row r="6">
@@ -1545,19 +1545,19 @@
         <v>96263</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>79342</v>
+        <v>80921</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>115629</v>
+        <v>114052</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2932723214901531</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2417197191320559</v>
+        <v>0.2465295582772133</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3522698303721442</v>
+        <v>0.3474665604373657</v>
       </c>
     </row>
     <row r="7">
@@ -1574,19 +1574,19 @@
         <v>49781</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36205</v>
+        <v>37445</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64794</v>
+        <v>63291</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1516594071055969</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1103019836085342</v>
+        <v>0.114077791917879</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1973990795643003</v>
+        <v>0.1928212772419301</v>
       </c>
     </row>
     <row r="8">
@@ -1636,19 +1636,19 @@
         <v>74033</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>58400</v>
+        <v>57709</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>91042</v>
+        <v>91324</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1599444581101462</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1261696515835253</v>
+        <v>0.1246770318502143</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1966924992239889</v>
+        <v>0.1973012015345767</v>
       </c>
     </row>
     <row r="10">
@@ -1665,19 +1665,19 @@
         <v>195465</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>174190</v>
+        <v>172326</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>218422</v>
+        <v>217937</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4222943399877823</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3763292671408844</v>
+        <v>0.3723029939757451</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.471891202286482</v>
+        <v>0.4708436552293351</v>
       </c>
     </row>
     <row r="11">
@@ -1694,19 +1694,19 @@
         <v>124150</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>103987</v>
+        <v>104581</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>144972</v>
+        <v>144815</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2682209183860682</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2246591491853816</v>
+        <v>0.2259421119583249</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3132047944518693</v>
+        <v>0.3128665078150537</v>
       </c>
     </row>
     <row r="12">
@@ -1723,19 +1723,19 @@
         <v>69217</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54646</v>
+        <v>54677</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>86772</v>
+        <v>85460</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1495402835160032</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1180594203055337</v>
+        <v>0.1181278760792437</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1874661783935143</v>
+        <v>0.1846337039460503</v>
       </c>
     </row>
     <row r="13">
@@ -1785,19 +1785,19 @@
         <v>66476</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52069</v>
+        <v>51796</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>83020</v>
+        <v>83600</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.179826472959944</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1408553647213872</v>
+        <v>0.1401165264283608</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2245811274398376</v>
+        <v>0.2261501559412083</v>
       </c>
     </row>
     <row r="15">
@@ -1814,19 +1814,19 @@
         <v>146428</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>127902</v>
+        <v>125991</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>165795</v>
+        <v>166983</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3961108218112184</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3459945421831713</v>
+        <v>0.3408260271192505</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.448499561044354</v>
+        <v>0.4517148191605095</v>
       </c>
     </row>
     <row r="16">
@@ -1843,19 +1843,19 @@
         <v>98105</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81920</v>
+        <v>80403</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116308</v>
+        <v>118477</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2653889376444063</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2216066232731642</v>
+        <v>0.2175020097204761</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3146303563009628</v>
+        <v>0.3204975025580071</v>
       </c>
     </row>
     <row r="17">
@@ -1872,19 +1872,19 @@
         <v>58656</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43666</v>
+        <v>44477</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>75659</v>
+        <v>74206</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1586737675844313</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1181225533964336</v>
+        <v>0.1203176821875334</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2046678019365661</v>
+        <v>0.2007379981674429</v>
       </c>
     </row>
     <row r="18">
@@ -1934,19 +1934,19 @@
         <v>129844</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>111718</v>
+        <v>111670</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>150581</v>
+        <v>151250</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2579595370867906</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2219480618616594</v>
+        <v>0.2218535869109067</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2991564031708335</v>
+        <v>0.300486376723624</v>
       </c>
     </row>
     <row r="20">
@@ -1963,19 +1963,19 @@
         <v>184785</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>163745</v>
+        <v>161417</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>207562</v>
+        <v>206086</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3671089096403773</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3253101126016332</v>
+        <v>0.3206848577679599</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4123587382357833</v>
+        <v>0.4094271598239543</v>
       </c>
     </row>
     <row r="21">
@@ -1992,19 +1992,19 @@
         <v>124933</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>106297</v>
+        <v>106281</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>146272</v>
+        <v>146474</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2482018531346181</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.211177691795633</v>
+        <v>0.2111464425381746</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2905962372010583</v>
+        <v>0.2909974838394285</v>
       </c>
     </row>
     <row r="22">
@@ -2021,19 +2021,19 @@
         <v>63790</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>48431</v>
+        <v>49578</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80658</v>
+        <v>80267</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.126729700138214</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09621701857139725</v>
+        <v>0.09849663980009657</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1602421637192242</v>
+        <v>0.1594654353472079</v>
       </c>
     </row>
     <row r="23">
@@ -2083,19 +2083,19 @@
         <v>342072</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>305935</v>
+        <v>309856</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>373674</v>
+        <v>378385</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2055573169999588</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1838420041552916</v>
+        <v>0.1861979912076335</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2245475870341173</v>
+        <v>0.2273786352426626</v>
       </c>
     </row>
     <row r="25">
@@ -2112,19 +2112,19 @@
         <v>637154</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>597343</v>
+        <v>595474</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>684824</v>
+        <v>678924</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3828772502411601</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3589541973780616</v>
+        <v>0.3578310586852503</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4115229736890878</v>
+        <v>0.4079779329343653</v>
       </c>
     </row>
     <row r="26">
@@ -2141,19 +2141,19 @@
         <v>443451</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>408957</v>
+        <v>402611</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>482064</v>
+        <v>478068</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2664778579691016</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2457496645419264</v>
+        <v>0.2419361809891174</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2896811368801827</v>
+        <v>0.2872798452162043</v>
       </c>
     </row>
     <row r="27">
@@ -2170,19 +2170,19 @@
         <v>241443</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>211197</v>
+        <v>213347</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>271812</v>
+        <v>274079</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1450875747897795</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1269120636966485</v>
+        <v>0.1282040892353588</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1633366959371514</v>
+        <v>0.1646988250890316</v>
       </c>
     </row>
     <row r="28">
@@ -2350,19 +2350,19 @@
         <v>100929</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85232</v>
+        <v>85026</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>118864</v>
+        <v>120189</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3019882143424016</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2550208562949595</v>
+        <v>0.2544055060140313</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3556488861824038</v>
+        <v>0.3596133957521713</v>
       </c>
     </row>
     <row r="5">
@@ -2379,19 +2379,19 @@
         <v>121281</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104555</v>
+        <v>102098</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>139660</v>
+        <v>138891</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3628812152501831</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3128378144363286</v>
+        <v>0.3054859663676157</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4178723948525866</v>
+        <v>0.4155716187643336</v>
       </c>
     </row>
     <row r="6">
@@ -2408,19 +2408,19 @@
         <v>67393</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52630</v>
+        <v>54583</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>82577</v>
+        <v>83740</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2016458391409234</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1574737135557338</v>
+        <v>0.1633158689350996</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2470774328234081</v>
+        <v>0.2505563134747436</v>
       </c>
     </row>
     <row r="7">
@@ -2437,19 +2437,19 @@
         <v>44613</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32534</v>
+        <v>32796</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58503</v>
+        <v>58543</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1334847312664918</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09734503618030527</v>
+        <v>0.09812897500984748</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1750458009643018</v>
+        <v>0.1751650093097832</v>
       </c>
     </row>
     <row r="8">
@@ -2499,19 +2499,19 @@
         <v>118721</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>98479</v>
+        <v>99095</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>139054</v>
+        <v>137387</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.21841631636081</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1811772092497586</v>
+        <v>0.1823103824727031</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2558251786664676</v>
+        <v>0.2527576635552689</v>
       </c>
     </row>
     <row r="10">
@@ -2528,19 +2528,19 @@
         <v>228552</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>203499</v>
+        <v>203707</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>249915</v>
+        <v>252629</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4204779181948726</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3743873528614297</v>
+        <v>0.3747694089690627</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4597806699913146</v>
+        <v>0.4647734145667403</v>
       </c>
     </row>
     <row r="11">
@@ -2557,19 +2557,19 @@
         <v>142468</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>122984</v>
+        <v>121526</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>165237</v>
+        <v>165324</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.262105077522988</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2262601659720879</v>
+        <v>0.2235774447195829</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3039942365423813</v>
+        <v>0.3041542280895543</v>
       </c>
     </row>
     <row r="12">
@@ -2586,19 +2586,19 @@
         <v>53812</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41126</v>
+        <v>39605</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>71349</v>
+        <v>69240</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09900068792132949</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.075660942738809</v>
+        <v>0.0728638607412696</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1312648615206383</v>
+        <v>0.1273835748855848</v>
       </c>
     </row>
     <row r="13">
@@ -2648,19 +2648,19 @@
         <v>71024</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>55848</v>
+        <v>55214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>87033</v>
+        <v>86653</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2076185816339235</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1632544364497806</v>
+        <v>0.161400338328159</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2544137419733502</v>
+        <v>0.253303148289016</v>
       </c>
     </row>
     <row r="15">
@@ -2677,19 +2677,19 @@
         <v>157330</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>137886</v>
+        <v>138872</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>176027</v>
+        <v>175974</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4599075277767261</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4030681285662833</v>
+        <v>0.4059511873422187</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5145615912551533</v>
+        <v>0.5144079716262778</v>
       </c>
     </row>
     <row r="16">
@@ -2706,19 +2706,19 @@
         <v>74603</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60233</v>
+        <v>59245</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91447</v>
+        <v>91258</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2180783769221988</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1760718030181558</v>
+        <v>0.1731842856034295</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2673189603255381</v>
+        <v>0.2667655926370541</v>
       </c>
     </row>
     <row r="17">
@@ -2735,19 +2735,19 @@
         <v>39134</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28076</v>
+        <v>29001</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52568</v>
+        <v>52240</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1143955136671516</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0820727107114556</v>
+        <v>0.08477531487179885</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1536654177006417</v>
+        <v>0.1527072048063597</v>
       </c>
     </row>
     <row r="18">
@@ -2797,19 +2797,19 @@
         <v>138316</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>117716</v>
+        <v>116606</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>160722</v>
+        <v>162695</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2578756087367984</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2194679811046981</v>
+        <v>0.2173986911386056</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2996484784517647</v>
+        <v>0.3033267789691913</v>
       </c>
     </row>
     <row r="20">
@@ -2826,19 +2826,19 @@
         <v>198865</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>174556</v>
+        <v>177120</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>223354</v>
+        <v>222272</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3707615908010894</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3254401456475309</v>
+        <v>0.3302207023981262</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4164192905627435</v>
+        <v>0.4144013903604824</v>
       </c>
     </row>
     <row r="21">
@@ -2855,19 +2855,19 @@
         <v>127836</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>108328</v>
+        <v>108303</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>151340</v>
+        <v>150704</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2383371371663947</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2019654772908882</v>
+        <v>0.2019197998592556</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2821572299554809</v>
+        <v>0.2809720959519598</v>
       </c>
     </row>
     <row r="22">
@@ -2884,19 +2884,19 @@
         <v>71351</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55810</v>
+        <v>55091</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>89251</v>
+        <v>86889</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1330256632957175</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1040523295578379</v>
+        <v>0.1027113530444836</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1663994382884643</v>
+        <v>0.1619956753874156</v>
       </c>
     </row>
     <row r="23">
@@ -2946,19 +2946,19 @@
         <v>428991</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>389805</v>
+        <v>395339</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>463901</v>
+        <v>468362</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2442682833160548</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2219559133417531</v>
+        <v>0.2251071619953489</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2641462142010751</v>
+        <v>0.2666866910402146</v>
       </c>
     </row>
     <row r="25">
@@ -2975,19 +2975,19 @@
         <v>706027</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>665218</v>
+        <v>662416</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>751326</v>
+        <v>749857</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4020136492785563</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3787769192055516</v>
+        <v>0.3771814077110091</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4278070093129216</v>
+        <v>0.4269705506531852</v>
       </c>
     </row>
     <row r="26">
@@ -3004,19 +3004,19 @@
         <v>412300</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>373031</v>
+        <v>378609</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>447327</v>
+        <v>450856</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2347646947699081</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2124048678604209</v>
+        <v>0.2155807325601169</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2547090025386862</v>
+        <v>0.2567185776034828</v>
       </c>
     </row>
     <row r="27">
@@ -3033,19 +3033,19 @@
         <v>208909</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>181639</v>
+        <v>181534</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>237022</v>
+        <v>236585</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1189533726354809</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1034255958447553</v>
+        <v>0.1033661797499817</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1349608046113967</v>
+        <v>0.1347122375901725</v>
       </c>
     </row>
     <row r="28">
@@ -3213,19 +3213,19 @@
         <v>105319</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>93904</v>
+        <v>94643</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>116322</v>
+        <v>116668</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3677038912140558</v>
+        <v>0.3677038912140559</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3278480681492365</v>
+        <v>0.3304291429945094</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4061165991262141</v>
+        <v>0.4073250956449316</v>
       </c>
     </row>
     <row r="5">
@@ -3242,19 +3242,19 @@
         <v>88150</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77442</v>
+        <v>76458</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>100123</v>
+        <v>99151</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.307761543306646</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2703757707596433</v>
+        <v>0.266938770178376</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3495609178864272</v>
+        <v>0.3461678827103906</v>
       </c>
     </row>
     <row r="6">
@@ -3271,19 +3271,19 @@
         <v>68004</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>58145</v>
+        <v>56945</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>78791</v>
+        <v>78997</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2374226843882629</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2030043381543865</v>
+        <v>0.198813914007804</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2750836108192106</v>
+        <v>0.2758057644978438</v>
       </c>
     </row>
     <row r="7">
@@ -3300,19 +3300,19 @@
         <v>24951</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18427</v>
+        <v>18263</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33625</v>
+        <v>33133</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0871118810910354</v>
+        <v>0.08711188109103542</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06433633347517781</v>
+        <v>0.06376048778099941</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1173944549071462</v>
+        <v>0.1156776234943036</v>
       </c>
     </row>
     <row r="8">
@@ -3362,19 +3362,19 @@
         <v>122243</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>109655</v>
+        <v>108973</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>137697</v>
+        <v>137268</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3051140969130396</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.273694864989777</v>
+        <v>0.2719927712186596</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3436865563489618</v>
+        <v>0.342615886189361</v>
       </c>
     </row>
     <row r="10">
@@ -3391,19 +3391,19 @@
         <v>135304</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>122046</v>
+        <v>119655</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>150017</v>
+        <v>149560</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3377145876678923</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3046228923099344</v>
+        <v>0.2986557122699325</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3744365919951146</v>
+        <v>0.3732964286058139</v>
       </c>
     </row>
     <row r="11">
@@ -3420,19 +3420,19 @@
         <v>93890</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>81162</v>
+        <v>80261</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>108291</v>
+        <v>107341</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2343473401582934</v>
+        <v>0.2343473401582933</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2025785700839446</v>
+        <v>0.200328654164211</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2702914793283816</v>
+        <v>0.2679198289600365</v>
       </c>
     </row>
     <row r="12">
@@ -3449,19 +3449,19 @@
         <v>49209</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39396</v>
+        <v>38966</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60315</v>
+        <v>60880</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1228239752607749</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0983305635170198</v>
+        <v>0.09725895111093914</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1505441537090634</v>
+        <v>0.1519533517133372</v>
       </c>
     </row>
     <row r="13">
@@ -3511,19 +3511,19 @@
         <v>90308</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>76506</v>
+        <v>78284</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>102990</v>
+        <v>103692</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3041624628744514</v>
+        <v>0.3041624628744515</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2576747270925778</v>
+        <v>0.26366470739576</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3468744643798803</v>
+        <v>0.349237821153668</v>
       </c>
     </row>
     <row r="15">
@@ -3540,19 +3540,19 @@
         <v>102084</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>89795</v>
+        <v>89335</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>116393</v>
+        <v>116767</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3438228044541781</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.302433935507927</v>
+        <v>0.3008846342617029</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3920173117588583</v>
+        <v>0.3932775326570467</v>
       </c>
     </row>
     <row r="16">
@@ -3569,19 +3569,19 @@
         <v>68672</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56058</v>
+        <v>56848</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80152</v>
+        <v>81882</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2312905487758501</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1888043806206355</v>
+        <v>0.1914671665024378</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.269954522750379</v>
+        <v>0.2757822753288591</v>
       </c>
     </row>
     <row r="17">
@@ -3598,19 +3598,19 @@
         <v>35844</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27230</v>
+        <v>27539</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45884</v>
+        <v>46302</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1207241838955204</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09171213773329946</v>
+        <v>0.09275424498759564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1545399809453255</v>
+        <v>0.155947046261854</v>
       </c>
     </row>
     <row r="18">
@@ -3660,19 +3660,19 @@
         <v>164299</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>149420</v>
+        <v>148594</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>183704</v>
+        <v>181461</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3443057625050805</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3131263359037061</v>
+        <v>0.311395025696288</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3849705260704184</v>
+        <v>0.3802716227817602</v>
       </c>
     </row>
     <row r="20">
@@ -3689,19 +3689,19 @@
         <v>132244</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>118260</v>
+        <v>117258</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>149378</v>
+        <v>148198</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2771312967108583</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2478269792165574</v>
+        <v>0.2457260704875339</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3130373046411256</v>
+        <v>0.3105655341429036</v>
       </c>
     </row>
     <row r="21">
@@ -3718,19 +3718,19 @@
         <v>110645</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>95889</v>
+        <v>96328</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>126983</v>
+        <v>126169</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2318686436720256</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2009456086261235</v>
+        <v>0.2018653632477682</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.266105486385315</v>
+        <v>0.2643996859633655</v>
       </c>
     </row>
     <row r="22">
@@ -3747,19 +3747,19 @@
         <v>70001</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>57285</v>
+        <v>57908</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>83760</v>
+        <v>83419</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1466942971120356</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1200473962990782</v>
+        <v>0.1213517987183937</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1755281640273419</v>
+        <v>0.1748132627953282</v>
       </c>
     </row>
     <row r="23">
@@ -3809,19 +3809,19 @@
         <v>482169</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>455426</v>
+        <v>453474</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>511880</v>
+        <v>508912</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3299890886050815</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3116859303376816</v>
+        <v>0.3103500566128461</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3503224612300947</v>
+        <v>0.3482913544915392</v>
       </c>
     </row>
     <row r="25">
@@ -3838,19 +3838,19 @@
         <v>457782</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>432162</v>
+        <v>429490</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>486664</v>
+        <v>486530</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3132989137122294</v>
+        <v>0.3132989137122293</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2957647756580456</v>
+        <v>0.2939361360699164</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.333064961951215</v>
+        <v>0.3329731625334484</v>
       </c>
     </row>
     <row r="26">
@@ -3867,19 +3867,19 @@
         <v>341211</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>317371</v>
+        <v>312527</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>367359</v>
+        <v>364720</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2335195498038788</v>
+        <v>0.2335195498038787</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2172034723592037</v>
+        <v>0.2138882308378441</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2514148048823739</v>
+        <v>0.2496085080394584</v>
       </c>
     </row>
     <row r="27">
@@ -3896,19 +3896,19 @@
         <v>180005</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>159092</v>
+        <v>159435</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>200807</v>
+        <v>202702</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1231924478788104</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1088799290346792</v>
+        <v>0.1091148126287918</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1374292887427068</v>
+        <v>0.1387260421228726</v>
       </c>
     </row>
     <row r="28">
